--- a/projects/shared_resources/VIN LOGS/HONDAofFRONTENAC_VINLOG.xlsx
+++ b/projects/shared_resources/VIN LOGS/HONDAofFRONTENAC_VINLOG.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="903">
   <si>
     <t>ORDER</t>
   </si>
@@ -2625,6 +2625,96 @@
   </si>
   <si>
     <t>2HKRW2H88JH680651</t>
+  </si>
+  <si>
+    <t>2HKRS3H78SH323982</t>
+  </si>
+  <si>
+    <t>JM3KFBCM3P0250125</t>
+  </si>
+  <si>
+    <t>3C6UR5CJXHG727153</t>
+  </si>
+  <si>
+    <t>5J6RW2H83JL007658</t>
+  </si>
+  <si>
+    <t>2HKRW2H93MH655816</t>
+  </si>
+  <si>
+    <t>2HGFC2F7XJH522179</t>
+  </si>
+  <si>
+    <t>7FARW2H57ME000560</t>
+  </si>
+  <si>
+    <t>1HGCV1F44LA047868</t>
+  </si>
+  <si>
+    <t>19XFB2F5XCE104574</t>
+  </si>
+  <si>
+    <t>7FARS4H71PE004522</t>
+  </si>
+  <si>
+    <t>7FARS5H84SE024240</t>
+  </si>
+  <si>
+    <t>7FARS4H49RE005538</t>
+  </si>
+  <si>
+    <t>5J6RW2H99KL015578</t>
+  </si>
+  <si>
+    <t>5FNYF5H96KB020923</t>
+  </si>
+  <si>
+    <t>5FNYF8H02NB014169</t>
+  </si>
+  <si>
+    <t>1C4RDHDG3KC647494</t>
+  </si>
+  <si>
+    <t>4T1BE32K22U028884</t>
+  </si>
+  <si>
+    <t>2HKRW1H9XLH401870</t>
+  </si>
+  <si>
+    <t>5J6RW2H59NA005985</t>
+  </si>
+  <si>
+    <t>1HGCV1F42MA079963</t>
+  </si>
+  <si>
+    <t>5FPYK3F71KB015900</t>
+  </si>
+  <si>
+    <t>7FARS3H79RE002336</t>
+  </si>
+  <si>
+    <t>WP1AA2A50PLB03465</t>
+  </si>
+  <si>
+    <t>4S4WMAWD1R3402325</t>
+  </si>
+  <si>
+    <t>7FARS6H56PE034030</t>
+  </si>
+  <si>
+    <t>3TYCZ5AN6NT096476</t>
+  </si>
+  <si>
+    <t>19XZE4F59ME000045</t>
+  </si>
+  <si>
+    <t>1HGCV1F31KA036381</t>
+  </si>
+  <si>
+    <t>7FARW2H84NE020664</t>
+  </si>
+  <si>
+    <t>4T1C11AK9NU645628</t>
   </si>
   <si>
     <t>date_processed</t>
@@ -8267,6 +8357,174 @@
         <v>870</v>
       </c>
     </row>
+    <row r="1095">
+      <c r="A1095" s="4">
+        <v>45023.0</v>
+      </c>
+      <c r="B1095" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="B1096" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="B1097" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="B1098" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="B1099" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="B1100" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="B1101" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="4">
+        <v>45046.0</v>
+      </c>
+      <c r="B1103" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="B1104" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106" s="4">
+        <v>45092.0</v>
+      </c>
+      <c r="B1106" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="B1107" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="B1108" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="B1109" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="B1110" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="B1111" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="B1112" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="4">
+        <v>45143.0</v>
+      </c>
+      <c r="B1114" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="B1115" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="B1116" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="B1117" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="B1118" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="4">
+        <v>45189.0</v>
+      </c>
+      <c r="B1120" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="B1121" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="B1122" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="B1123" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="B1124" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="B1125" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="B1126" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="B1127" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="4">
+        <v>45250.0</v>
+      </c>
+      <c r="B1129" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8288,10 +8546,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>871</v>
+        <v>901</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>872</v>
+        <v>902</v>
       </c>
     </row>
     <row r="2">
